--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30102_パスワード変更.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30102_パスワード変更.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E6CA8-5BE1-4E54-ADFE-70F5848093FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF02BA35-5CA0-4534-AC3E-9A6C0607AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="パスワード変更画面" sheetId="2" r:id="rId1"/>
+    <sheet name="No.1~7" sheetId="4" r:id="rId2"/>
+    <sheet name="No.8" sheetId="5" r:id="rId3"/>
+    <sheet name="No.10" sheetId="6" r:id="rId4"/>
+    <sheet name="No.12" sheetId="8" r:id="rId5"/>
+    <sheet name="No.14~15" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="169">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1523,12 +1539,28 @@
 [英小文字 / Lowercase, 数字 / Number, 記号「!$%()+-./=@[]^_~」/ symbol]</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>OLD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※この仕様が存在しないこと</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,8 +1597,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1594,6 +1635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1763,6 +1810,18 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1790,21 +1849,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1824,6 +1884,2977 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD512E75-E661-3FD2-11C8-501A10F45A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17093AE-0F75-2239-C1AA-403809B6DADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8512D778-E7B7-4C36-8031-E7A555B76036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448176" y="63499"/>
+          <a:ext cx="3238499" cy="587375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41569"/>
+            <a:gd name="adj2" fmla="val 81959"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF002729-E4E2-41BE-9483-BE3F0B6E5E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717549" y="730250"/>
+          <a:ext cx="4000500" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4087B917-3B9B-4CCF-95A2-B524AD5462BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1269999"/>
+          <a:ext cx="5016500" cy="4429126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95870B8A-36A3-4EF3-8E29-757B44D2BC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="2041524"/>
+          <a:ext cx="4991099" cy="3371851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61016"/>
+            <a:gd name="adj2" fmla="val 35719"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>システム名のバナーと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>CONFIDENTIAL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>関係社外秘が表示されること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・画面に下記メッセージが出力されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パスワードの有効期限が切れました。パスワード変更してください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Your Password has expired. Please change your Password.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されることユーザーＩＤ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>User ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されること現在のパスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Current Password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されること新しいパスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>New Password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されること新しいパスワード（再入力）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Re-enter New Password</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7453A1D2-93EA-42D8-8F41-00F7DB671517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23634701" y="47624"/>
+          <a:ext cx="3238499" cy="587375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41569"/>
+            <a:gd name="adj2" fmla="val 81959"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>587374</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837AE6DD-9D1D-411B-96DE-232CEB91D03F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19904074" y="714375"/>
+          <a:ext cx="4000500" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D2F315-8827-7F8A-E0E7-0120F37ACC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19812000" y="1285874"/>
+          <a:ext cx="5016500" cy="4429126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Speech Bubble: Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADADA981-3357-D2E8-04D2-8E521B3B9E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25393650" y="2057399"/>
+          <a:ext cx="4991099" cy="3371851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61016"/>
+            <a:gd name="adj2" fmla="val 35719"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>システム名のバナーと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>CONFIDENTIAL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>関係社外秘が表示されること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・画面に下記メッセージが出力されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パスワードの有効期限が切れました。パスワード変更してください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Your Password has expired. Please change your Password.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されることユーザーＩＤ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>User ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されること現在のパスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Current Password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されること新しいパスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>New Password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>No.7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ラベルが下記の通り表示されること新しいパスワード（再入力）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Re-enter New Password</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BF559D-5D0F-0D13-1A23-AF8128082246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603252</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0040B43-C5EB-4BA4-8637-3F9A05F92375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699002" y="4286251"/>
+          <a:ext cx="2524123" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46600"/>
+            <a:gd name="adj2" fmla="val -122586"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力可能文字数が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>文字であること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36357D8B-747B-4E8A-B552-22D437E5A6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841626" y="3857625"/>
+          <a:ext cx="1936750" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE71FC7-4F10-4FA9-9B7A-898029CCF2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>603252</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Speech Bubble: Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6554EEE-A375-4626-B3AB-1FD70AB14C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23812502" y="4286251"/>
+          <a:ext cx="2524123" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46600"/>
+            <a:gd name="adj2" fmla="val -122586"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力可能文字数が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>文字であること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AA177B-2AA2-4C8A-8AA0-045AF3ADFE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21955126" y="3857625"/>
+          <a:ext cx="1936750" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206234E0-D545-53E7-5C4C-14DD80F77EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00AA837-F7DE-0266-1FA3-209CA5443F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603252</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>222251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A3DD7E-61E6-4923-903E-072403FF3620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699002" y="4984751"/>
+          <a:ext cx="2524123" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46600"/>
+            <a:gd name="adj2" fmla="val -122586"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力可能文字数が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>文字であること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B34E8B-0551-4E46-9D84-4D87AB166B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841626" y="4556125"/>
+          <a:ext cx="1936750" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>587377</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EF518A-1279-4C5A-A43B-5E1654DC3F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23796627" y="5016501"/>
+          <a:ext cx="2524123" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46600"/>
+            <a:gd name="adj2" fmla="val -122586"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力可能文字数が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>文字であること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2411A03E-7A8D-4ACB-B208-BDAD886A827A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21939251" y="4587875"/>
+          <a:ext cx="1936750" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749311A5-6BEC-6499-0AC3-C209562C4CD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9E1B3F-37F0-6AA8-3EEF-3F46232B57CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603252</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27AF675-3F1F-4F46-A769-324734D5D814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699002" y="5715001"/>
+          <a:ext cx="2524123" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46600"/>
+            <a:gd name="adj2" fmla="val -122586"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力可能文字数が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>文字であること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26BD4D2-9D36-464C-8F27-A2A4A8CB2497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841626" y="5286375"/>
+          <a:ext cx="1936750" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>603252</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6291874C-B4D4-4C02-9773-75FC4E4AFBE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23812502" y="5715001"/>
+          <a:ext cx="2524123" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46600"/>
+            <a:gd name="adj2" fmla="val -122586"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力可能文字数が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>文字であること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016A879D-D611-4C44-9BB3-E3F4E2958F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21955126" y="5286375"/>
+          <a:ext cx="1936750" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F2D562-5B6C-4D32-B8B5-D0E930D2CC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1E1AFC-AC85-4CD8-85E6-CF74EC16A4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D841D2-40D2-4BCD-9527-FB5F7E6130A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="730250" y="5905500"/>
+          <a:ext cx="1158875" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466AD05E-8D46-46F8-949A-0A18403B2A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="860426" y="6527801"/>
+          <a:ext cx="2473324" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37545"/>
+            <a:gd name="adj2" fmla="val -89507"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ボタンが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>更新 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>/ Update</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1A46AB-5E91-1882-B14B-70BF13A61B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841625" y="5905500"/>
+          <a:ext cx="1365250" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>193676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BC7F29-B714-8EEF-84FD-5FD18AE9BBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352926" y="6384926"/>
+          <a:ext cx="2473324" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55517"/>
+            <a:gd name="adj2" fmla="val -94662"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ボタンが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>キャンセル </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>/ Cancel</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A462E590-EC81-C068-7BC9-13759F3AF544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19859625" y="5905500"/>
+          <a:ext cx="1158875" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>193676</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DCFAFD-B708-6CB3-A4BA-284AE558FFBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19989801" y="6527801"/>
+          <a:ext cx="2473324" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37545"/>
+            <a:gd name="adj2" fmla="val -89507"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ボタンが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>更新 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>/ Update</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE23452-8348-8CC8-DA41-8EDF838C15DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21971000" y="5905500"/>
+          <a:ext cx="1365250" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>273051</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>193676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3A9955-DD1A-95D0-34BF-92B237583038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23482301" y="6384926"/>
+          <a:ext cx="2473324" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55517"/>
+            <a:gd name="adj2" fmla="val -94662"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ボタンが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>キャンセル </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>/ Cancel</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2091,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2111,21 +5142,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="16" t="s">
         <v>129</v>
       </c>
@@ -2143,10 +5174,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
@@ -2164,24 +5195,24 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
@@ -2193,13 +5224,13 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="15"/>
       <c r="J6" s="5" t="s">
         <v>7</v>
@@ -2414,27 +5445,31 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
+      <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="12"/>
+      <c r="K15" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="35" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
@@ -2462,27 +5497,31 @@
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
+      <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="12"/>
+      <c r="K17" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="35" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
@@ -2510,27 +5549,31 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+      <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="12"/>
+      <c r="K19" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="35" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
@@ -2868,13 +5911,13 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="31"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
@@ -4121,6 +7164,125 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72C32FA-B933-40C1-A11E-D121DCEA4BA2}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V47" sqref="U47:V47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5563AC-C3E0-4CD3-9C12-B6280A83350A}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B2A170-2B6E-4209-98A1-0C8A151425FC}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206DCB3B-80FC-4E1B-94D7-DB6F12A69D63}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA332F42-8875-481C-AB35-44F7A60F8227}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB47" sqref="AB47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4348,15 +7510,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -4367,14 +7520,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBECB71D-3B1B-4CB1-BF12-BE977A3A5ABA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBECB71D-3B1B-4CB1-BF12-BE977A3A5ABA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5342CF87-CFD7-4FC1-8380-3474ACEE46C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87F8C8DF-BAF4-462F-B89A-03ABD85471E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87F8C8DF-BAF4-462F-B89A-03ABD85471E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5342CF87-CFD7-4FC1-8380-3474ACEE46C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>